--- a/sampledata/RuSS_sample.xlsx
+++ b/sampledata/RuSS_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C621CE7-B1DA-E04A-A374-030A4543B102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4330776-F9A3-604D-A5F3-B8EA46AAC4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="500" windowWidth="25120" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2363,7 +2363,7 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
